--- a/inputs/tariff_configuration_ALL.xlsx
+++ b/inputs/tariff_configuration_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koch_j0\AMIRIS\demand_response_analyses_workflow\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5982C127-0AE2-4D43-A1FE-3F9EEC653448}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC07B2B-A550-45BC-811C-6C04F4B7AD69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{3118DBBB-A8B8-40F0-B654-F617A01C8433}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="1" xr2:uid="{3118DBBB-A8B8-40F0-B654-F617A01C8433}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -105,12 +105,6 @@
     <t>TariffComponent</t>
   </si>
   <si>
-    <t>Regular Value in €/MWh</t>
-  </si>
-  <si>
-    <t>Applicable Value in €/MWh (incl. possible reductions)</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Capacity-related Network Charges MS</t>
-  </si>
-  <si>
     <t>€/kW * a</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
     <t>AMIRIS simulation result; calculated within workflow!</t>
   </si>
   <si>
-    <t>Sum of payments for taxes, levies and network charges</t>
-  </si>
-  <si>
     <t>Preisblatt 2;  Stuttgart Netze has no "Grundpreis" for LV (NS: Niederspannung) consumers</t>
   </si>
   <si>
@@ -409,6 +397,18 @@
   </si>
   <si>
     <t>ÜNB (2023d); calculated within workflow</t>
+  </si>
+  <si>
+    <t>SUM EXCL WHOLESALE AND CAPACITY PRICE</t>
+  </si>
+  <si>
+    <t>Capacity-related Network Charges</t>
+  </si>
+  <si>
+    <t>Regular Value in EUR/MWh</t>
+  </si>
+  <si>
+    <t>Applicable Value in EUR/MWh (incl. possible reductions)</t>
   </si>
 </sst>
 </file>
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B679F59-6675-417B-B24E-85E972840436}">
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1042,12 +1042,12 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" x14ac:dyDescent="0.25">
@@ -1077,10 +1077,10 @@
         <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -1091,10 +1091,10 @@
         <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>17</v>
@@ -1119,7 +1119,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>17</v>
@@ -1133,10 +1133,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -1147,10 +1147,10 @@
         <v>18</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1163,15 +1163,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B6F998-9ABC-4707-A766-B287B89607D5}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
@@ -1182,24 +1182,24 @@
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -1211,15 +1211,15 @@
         <v>2023</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>79.8</v>
@@ -1231,15 +1231,15 @@
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6">
         <v>20.5</v>
@@ -1251,15 +1251,15 @@
         <v>2023</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(B6:B10)</f>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>3.57</v>
@@ -1287,15 +1287,15 @@
         <v>2023</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>5.91</v>
@@ -1307,15 +1307,15 @@
         <v>2023</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="22">
         <v>4.17</v>
@@ -1327,15 +1327,15 @@
         <v>2023</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1347,15 +1347,15 @@
         <v>2023</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>23.9</v>
@@ -1367,15 +1367,15 @@
         <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8">
         <f>B4+B5+B3</f>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11">
         <f>0.19*SUM(B2:B5)</f>
@@ -1407,12 +1407,12 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="24">
         <v>0</v>
@@ -1422,15 +1422,15 @@
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B14" s="11">
         <f>SUM(B2:B5,B12:B13)</f>
@@ -1447,42 +1447,42 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>2023</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>10.17</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1498,14 +1498,14 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
@@ -1516,24 +1516,24 @@
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -1545,15 +1545,15 @@
         <v>2023</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>79.8</v>
@@ -1565,15 +1565,15 @@
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6">
         <v>20.5</v>
@@ -1585,15 +1585,15 @@
         <v>2023</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(B6:B10)</f>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>3.57</v>
@@ -1621,15 +1621,15 @@
         <v>2023</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>5.91</v>
@@ -1641,15 +1641,15 @@
         <v>2023</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="22">
         <v>4.17</v>
@@ -1661,15 +1661,15 @@
         <v>2023</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1681,15 +1681,15 @@
         <v>2023</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>23.9</v>
@@ -1701,15 +1701,15 @@
         <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8">
         <f>B4+B5+B3</f>
@@ -1724,12 +1724,12 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11">
         <f>0.19*SUM(B2:B5)</f>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="24">
         <v>0</v>
@@ -1756,15 +1756,15 @@
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B14" s="11">
         <f>SUM(B2:B5,B12:B13)</f>
@@ -1781,42 +1781,42 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>2023</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>10.17</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1832,14 +1832,14 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="99" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
@@ -1850,24 +1850,24 @@
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -1879,15 +1879,15 @@
         <v>2023</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>79.8</v>
@@ -1899,15 +1899,15 @@
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6">
         <v>20.5</v>
@@ -1919,15 +1919,15 @@
         <v>2023</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(B6:B10)</f>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>3.57</v>
@@ -1955,15 +1955,15 @@
         <v>2023</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>5.91</v>
@@ -1975,15 +1975,15 @@
         <v>2023</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="22">
         <v>4.17</v>
@@ -1995,15 +1995,15 @@
         <v>2023</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2015,15 +2015,15 @@
         <v>2023</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>23.9</v>
@@ -2035,15 +2035,15 @@
         <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8">
         <f>B4+B5+B3</f>
@@ -2058,12 +2058,12 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11">
         <f>0*SUM(B2:B5)</f>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="24">
         <v>0</v>
@@ -2090,15 +2090,15 @@
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B14" s="11">
         <f>SUM(B2:B5,B12:B13)</f>
@@ -2115,42 +2115,42 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B15">
         <v>98.85</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>2023</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>575.79999999999995</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2166,14 +2166,14 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
@@ -2184,24 +2184,24 @@
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -2213,15 +2213,15 @@
         <v>2023</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>79.8</v>
@@ -2233,15 +2233,15 @@
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6">
         <v>20.5</v>
@@ -2253,15 +2253,15 @@
         <v>2023</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(B6:B10)</f>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>3.57</v>
@@ -2289,15 +2289,15 @@
         <v>2023</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>5.91</v>
@@ -2309,15 +2309,15 @@
         <v>2023</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="22">
         <v>4.17</v>
@@ -2329,15 +2329,15 @@
         <v>2023</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2349,15 +2349,15 @@
         <v>2023</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>23.9</v>
@@ -2369,15 +2369,15 @@
         <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8">
         <f>B4+B5+B3</f>
@@ -2392,12 +2392,12 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11">
         <f>0*SUM(B2:B5)</f>
@@ -2409,12 +2409,12 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="24">
         <v>0</v>
@@ -2424,15 +2424,15 @@
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B14" s="11">
         <f>SUM(B2:B5,B12:B13)</f>
@@ -2449,42 +2449,42 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B15">
         <v>98.85</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>2023</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>575.79999999999995</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2500,14 +2500,14 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
@@ -2518,24 +2518,24 @@
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -2547,15 +2547,15 @@
         <v>2023</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>79.8</v>
@@ -2567,15 +2567,15 @@
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6">
         <v>20.5</v>
@@ -2587,15 +2587,15 @@
         <v>2023</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(B6:B10)</f>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>3.57</v>
@@ -2623,15 +2623,15 @@
         <v>2023</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>5.91</v>
@@ -2643,15 +2643,15 @@
         <v>2023</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="22">
         <v>4.17</v>
@@ -2663,15 +2663,15 @@
         <v>2023</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2683,15 +2683,15 @@
         <v>2023</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>23.9</v>
@@ -2703,15 +2703,15 @@
         <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8">
         <f>B4+B5+B3</f>
@@ -2726,12 +2726,12 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11">
         <f>0*SUM(B2:B5)</f>
@@ -2743,12 +2743,12 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="24">
         <v>0</v>
@@ -2758,15 +2758,15 @@
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B14" s="11">
         <f>SUM(B2:B5,B12:B13)</f>
@@ -2783,42 +2783,42 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B15">
         <v>18.989999999999998</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>2023</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>402.74</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2834,14 +2834,14 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
@@ -2852,24 +2852,24 @@
         <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -2881,15 +2881,15 @@
         <v>2023</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>79.8</v>
@@ -2901,15 +2901,15 @@
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6">
         <v>20.5</v>
@@ -2921,15 +2921,15 @@
         <v>2023</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(B6:B10)</f>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>3.57</v>
@@ -2957,15 +2957,15 @@
         <v>2023</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>5.91</v>
@@ -2977,15 +2977,15 @@
         <v>2023</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="22">
         <v>4.17</v>
@@ -2997,15 +2997,15 @@
         <v>2023</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3017,15 +3017,15 @@
         <v>2023</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>23.9</v>
@@ -3037,15 +3037,15 @@
         <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8">
         <f>B4+B5+B3</f>
@@ -3060,12 +3060,12 @@
       </c>
       <c r="E11" s="8"/>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="11">
         <f>0.19*SUM(B2:B5)</f>
@@ -3077,12 +3077,12 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="24">
         <v>0</v>
@@ -3092,15 +3092,15 @@
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B14" s="11">
         <f>SUM(B2:B5,B12:B13)</f>
@@ -3117,42 +3117,42 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>2023</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>10.17</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -3182,27 +3182,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2" s="21">
         <v>45083</v>
@@ -3210,13 +3210,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>68</v>
       </c>
       <c r="D3" s="21">
         <v>45083</v>
@@ -3224,13 +3224,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="21">
         <v>45083</v>
@@ -3238,13 +3238,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" s="21">
         <v>45083</v>
@@ -3252,13 +3252,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" s="21">
         <v>45083</v>
@@ -3266,13 +3266,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="21">
         <v>45083</v>
@@ -3280,13 +3280,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="21">
         <v>45083</v>
@@ -3294,13 +3294,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="21">
         <v>45083</v>
@@ -3308,13 +3308,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="21">
         <v>45083</v>
@@ -3322,13 +3322,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11" s="21">
         <v>45083</v>
@@ -3336,13 +3336,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" s="21">
         <v>45083</v>
@@ -3350,13 +3350,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D13" s="21">
         <v>45083</v>
@@ -3364,13 +3364,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>83</v>
-      </c>
       <c r="C14" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" s="21">
         <v>45083</v>
@@ -3378,13 +3378,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="21">
         <v>45083</v>

--- a/inputs/tariff_configuration_ALL.xlsx
+++ b/inputs/tariff_configuration_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koch_j0\AMIRIS\demand_response_analyses_workflow\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC07B2B-A550-45BC-811C-6C04F4B7AD69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DFB570-3EA2-4DC6-83AF-0E2F18AA7678}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="1" xr2:uid="{3118DBBB-A8B8-40F0-B654-F617A01C8433}"/>
   </bookViews>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inputs/tariff_configuration_ALL.xlsx
+++ b/inputs/tariff_configuration_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koch_j0\AMIRIS\demand_response_analyses_workflow\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DFB570-3EA2-4DC6-83AF-0E2F18AA7678}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2F3C5A-6F24-41EF-AC99-13699DAEB753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" activeTab="1" xr2:uid="{3118DBBB-A8B8-40F0-B654-F617A01C8433}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{3118DBBB-A8B8-40F0-B654-F617A01C8433}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -40,17 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="129">
   <si>
     <t>In principle, prices for final consumers are derived from the tariff components of the current system.</t>
   </si>
   <si>
-    <t>Tariff components are split into: Energy-related payments (comprises: wholesale electricity price, energy-related network charges, power tax, KWKG levy, AbLaV levy, § 17f EnWG levy, § 19 (2) StromNEV levy, concession fee) and capacity-related payments (which correspond to network charges in the current system).</t>
-  </si>
-  <si>
-    <t>Now the overall payment obligation (specific value in €/MWh) is used as a starting point to parameterize the different tariff designs to be research which abstract from real price components.</t>
-  </si>
-  <si>
     <t>Hypothetical situations with varying the splits between capacitiy- and energy-related payments as well as using different shares of dynamic energy-related prices are researched.</t>
   </si>
   <si>
@@ -132,9 +126,6 @@
     <t>KWKG levy</t>
   </si>
   <si>
-    <t>voll umlagepflichtig; §§ 30-31 EnFG greifen nicht (15 % Umlage) greift nicht</t>
-  </si>
-  <si>
     <t>§ 17f EnWG levy</t>
   </si>
   <si>
@@ -393,9 +384,6 @@
     <t>no VAT for commercial consumers</t>
   </si>
   <si>
-    <t>StromNEV / KWKG 2023; Mischwert LV A' und B'; reduzierter Satz: 0.5 €/MWh für Verbrauch über 1000 MWh/a</t>
-  </si>
-  <si>
     <t>ÜNB (2023d); calculated within workflow</t>
   </si>
   <si>
@@ -409,6 +397,36 @@
   </si>
   <si>
     <t>Applicable Value in EUR/MWh (incl. possible reductions)</t>
+  </si>
+  <si>
+    <t>- Energy-related payments (comprises: wholesale electricity price, energy-related network charges, power tax, KWKG levy, AbLaV levy, § 17f EnWG levy, § 19 (2) StromNEV levy, concession fee) and</t>
+  </si>
+  <si>
+    <t>- capacity-related payments (which correspond to network charges in the current system).</t>
+  </si>
+  <si>
+    <t>Tariff components are split into:</t>
+  </si>
+  <si>
+    <t>Note: In case industrial exemptions are dependend on the overall power consumption, thhe respective tariff component is set to 0 on the respective workbook and the actual applicable value is calculated within the demand response analyses workflow.</t>
+  </si>
+  <si>
+    <t>The overall payment obligation (specific value in €/MWh) is used as a starting point to parameterize the different tariff designs to be research which abstract from the actual price components.</t>
+  </si>
+  <si>
+    <t>to be calculated?</t>
+  </si>
+  <si>
+    <t>StromNEV / KWKG 2023; Mischwert LV A' und C'; reduzierter Satz: 0.25 €/MWh für Verbrauch über 1000 MWh/a</t>
+  </si>
+  <si>
+    <t>ÜNB (2023c); calculated within workflow</t>
+  </si>
+  <si>
+    <t>ÜNB (2023b); calculated within workflow</t>
+  </si>
+  <si>
+    <t>§§ 30-31 EnFG greifen: 15 % Umlage für 1 GWh übersteigende Mengen; keine Berücksichtigung der Deckelung über Bruttowertschöpfung</t>
   </si>
 </sst>
 </file>
@@ -418,7 +436,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +522,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -559,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -601,7 +626,11 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -990,9 +1019,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B679F59-6675-417B-B24E-85E972840436}">
-  <dimension ref="B1:E20"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1006,151 +1035,166 @@
     <col min="6" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" ht="6.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>107</v>
+      <c r="D22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1161,10 +1205,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B6F998-9ABC-4707-A766-B287B89607D5}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6">
+        <v>79.8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>79.8</v>
+      </c>
+      <c r="D3">
+        <v>2023</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="D4">
+        <v>2023</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(B6:B10)</f>
+        <v>37.549999999999997</v>
+      </c>
+      <c r="C5" s="7">
+        <f>SUM(C6:C10)</f>
+        <v>37.549999999999997</v>
+      </c>
+      <c r="D5">
+        <v>2023</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>3.57</v>
+      </c>
+      <c r="C6">
+        <v>3.57</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>5.91</v>
+      </c>
+      <c r="C7">
+        <v>5.91</v>
+      </c>
+      <c r="D7">
+        <v>2023</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="22">
+        <v>4.17</v>
+      </c>
+      <c r="C8" s="22">
+        <v>4.17</v>
+      </c>
+      <c r="D8">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2023</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>23.9</v>
+      </c>
+      <c r="C10">
+        <v>23.9</v>
+      </c>
+      <c r="D10">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8">
+        <f>B4+B5+B3</f>
+        <v>137.85</v>
+      </c>
+      <c r="C11" s="9">
+        <f>C4+C5+C3</f>
+        <v>137.85</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2023</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="11">
+        <f>0.19*SUM(B2:B5)</f>
+        <v>26.191499999999998</v>
+      </c>
+      <c r="C12" s="11">
+        <f>0.19*SUM(C2:C5)</f>
+        <v>26.191499999999998</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="11">
+        <f>SUM(B2:B5,B12:B13)</f>
+        <v>164.04149999999998</v>
+      </c>
+      <c r="C14" s="13">
+        <f>SUM(C2:C5,C12:C13)</f>
+        <v>164.04149999999998</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2023</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>2023</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>10.17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>2023</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AA0CD1-6FB3-4C61-9F08-C925617B1FC3}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,53 +1599,60 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2023</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>79.8</v>
@@ -1230,16 +1663,19 @@
       <c r="D3">
         <v>2023</v>
       </c>
-      <c r="E3" t="s">
-        <v>93</v>
+      <c r="E3" s="22">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6">
         <v>20.5</v>
@@ -1250,16 +1686,19 @@
       <c r="D4">
         <v>2023</v>
       </c>
-      <c r="E4" t="s">
-        <v>94</v>
+      <c r="E4" s="22">
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(B6:B10)</f>
@@ -1272,10 +1711,13 @@
       <c r="D5">
         <v>2023</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>3.57</v>
@@ -1286,16 +1728,19 @@
       <c r="D6">
         <v>2023</v>
       </c>
-      <c r="E6" t="s">
-        <v>95</v>
+      <c r="E6" s="22">
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>5.91</v>
@@ -1306,16 +1751,19 @@
       <c r="D7">
         <v>2023</v>
       </c>
-      <c r="E7" t="s">
-        <v>95</v>
+      <c r="E7" s="22">
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="22">
         <v>4.17</v>
@@ -1326,16 +1774,19 @@
       <c r="D8">
         <v>2023</v>
       </c>
-      <c r="E8" t="s">
-        <v>95</v>
+      <c r="E8" s="22">
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1346,16 +1797,19 @@
       <c r="D9">
         <v>2023</v>
       </c>
-      <c r="E9" t="s">
-        <v>96</v>
+      <c r="E9" s="22">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>23.9</v>
@@ -1366,16 +1820,19 @@
       <c r="D10">
         <v>2023</v>
       </c>
-      <c r="E10" t="s">
-        <v>97</v>
+      <c r="E10" s="22">
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="8">
         <f>B4+B5+B3</f>
@@ -1388,14 +1845,17 @@
       <c r="D11" s="8">
         <v>2023</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11">
         <f>0.19*SUM(B2:B5)</f>
@@ -1406,13 +1866,16 @@
         <v>26.191499999999998</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="24">
         <v>0</v>
@@ -1421,16 +1884,19 @@
         <v>0</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B14" s="11">
         <f>SUM(B2:B5,B12:B13)</f>
@@ -1443,46 +1909,55 @@
       <c r="D14" s="10">
         <v>2023</v>
       </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>2023</v>
       </c>
-      <c r="E15" t="s">
-        <v>100</v>
+      <c r="E15" s="22">
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>10.17</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
-      <c r="E16" t="s">
-        <v>112</v>
+      <c r="E16" s="22">
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1493,12 +1968,774 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AA0CD1-6FB3-4C61-9F08-C925617B1FC3}">
-  <dimension ref="A1:F18"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78948DBB-3091-409B-A186-B130C0B79515}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="123.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6">
+        <v>79.8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="D3">
+        <v>2023</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>15.37</v>
+      </c>
+      <c r="D4">
+        <v>2023</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(B6:B10)</f>
+        <v>37.549999999999997</v>
+      </c>
+      <c r="C5" s="7">
+        <f>SUM(C6:C10)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>2023</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>3.57</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>5.91</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2023</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="22">
+        <v>4.17</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2023</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>23.9</v>
+      </c>
+      <c r="C10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8">
+        <f>B4+B5+B3</f>
+        <v>137.85</v>
+      </c>
+      <c r="C11" s="9">
+        <f>C4+C5+C3</f>
+        <v>29.27</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2023</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="11">
+        <f>0*SUM(B2:B5)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <f>0*SUM(C2:C5)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="11">
+        <f>SUM(B2:B5,B12:B13)</f>
+        <v>137.85</v>
+      </c>
+      <c r="C14" s="13">
+        <f>SUM(C2:C5,C12:C13)</f>
+        <v>29.270000000000003</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2023</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15">
+        <v>98.85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>2023</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>575.79999999999995</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>2023</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB7037D-F2B6-4676-B544-E6ACCC566667}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="123.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6">
+        <v>79.8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="D3">
+        <v>2023</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>15.37</v>
+      </c>
+      <c r="D4">
+        <v>2023</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(B6:B10)</f>
+        <v>37.549999999999997</v>
+      </c>
+      <c r="C5" s="7">
+        <f>SUM(C6:C10)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>2023</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>3.57</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>5.91</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2023</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="22">
+        <v>4.17</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2023</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>23.9</v>
+      </c>
+      <c r="C10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8">
+        <f>B4+B5+B3</f>
+        <v>137.85</v>
+      </c>
+      <c r="C11" s="9">
+        <f>C4+C5+C3</f>
+        <v>29.27</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2023</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="11">
+        <f>0*SUM(B2:B5)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <f>0*SUM(C2:C5)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="11">
+        <f>SUM(B2:B5,B12:B13)</f>
+        <v>137.85</v>
+      </c>
+      <c r="C14" s="13">
+        <f>SUM(C2:C5,C12:C13)</f>
+        <v>29.270000000000003</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2023</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15">
+        <v>98.85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>2023</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>575.79999999999995</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>2023</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4AE0BC-7246-4B6D-B709-C9DFB0F4D896}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="E1" sqref="E1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,73 +2744,83 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2023</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>79.8</v>
       </c>
       <c r="C3" s="6">
-        <v>79.8</v>
+        <v>59.8</v>
       </c>
       <c r="D3">
         <v>2023</v>
       </c>
-      <c r="E3" t="s">
-        <v>93</v>
+      <c r="E3" s="22">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6">
         <v>20.5</v>
@@ -1584,16 +2831,19 @@
       <c r="D4">
         <v>2023</v>
       </c>
-      <c r="E4" t="s">
-        <v>94</v>
+      <c r="E4" s="22">
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(B6:B10)</f>
@@ -1606,10 +2856,13 @@
       <c r="D5">
         <v>2023</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>3.57</v>
@@ -1620,16 +2873,19 @@
       <c r="D6">
         <v>2023</v>
       </c>
-      <c r="E6" t="s">
-        <v>95</v>
+      <c r="E6" s="22">
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>5.91</v>
@@ -1640,16 +2896,19 @@
       <c r="D7">
         <v>2023</v>
       </c>
-      <c r="E7" t="s">
-        <v>95</v>
+      <c r="E7" s="22">
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="22">
         <v>4.17</v>
@@ -1660,16 +2919,19 @@
       <c r="D8">
         <v>2023</v>
       </c>
-      <c r="E8" t="s">
-        <v>95</v>
+      <c r="E8" s="22">
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1680,16 +2942,19 @@
       <c r="D9">
         <v>2023</v>
       </c>
-      <c r="E9" t="s">
-        <v>96</v>
+      <c r="E9" s="22">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>23.9</v>
@@ -1700,16 +2965,19 @@
       <c r="D10">
         <v>2023</v>
       </c>
-      <c r="E10" t="s">
-        <v>97</v>
+      <c r="E10" s="22">
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="8">
         <f>B4+B5+B3</f>
@@ -1717,36 +2985,42 @@
       </c>
       <c r="C11" s="9">
         <f>C4+C5+C3</f>
-        <v>137.85</v>
+        <v>117.85</v>
       </c>
       <c r="D11" s="8">
         <v>2023</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="11">
-        <f>0.19*SUM(B2:B5)</f>
-        <v>26.191499999999998</v>
+        <f>0*SUM(B2:B5)</f>
+        <v>0</v>
       </c>
       <c r="C12" s="11">
-        <f>0.19*SUM(C2:C5)</f>
-        <v>26.191499999999998</v>
+        <f>0*SUM(C2:C5)</f>
+        <v>0</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="24">
         <v>0</v>
@@ -1755,68 +3029,80 @@
         <v>0</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B14" s="11">
         <f>SUM(B2:B5,B12:B13)</f>
-        <v>164.04149999999998</v>
+        <v>137.85</v>
       </c>
       <c r="C14" s="13">
         <f>SUM(C2:C5,C12:C13)</f>
-        <v>164.04149999999998</v>
+        <v>117.85</v>
       </c>
       <c r="D14" s="10">
         <v>2023</v>
       </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>2023</v>
       </c>
-      <c r="E15" t="s">
-        <v>100</v>
+      <c r="E15" s="22">
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>10.17</v>
+        <v>402.74</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
-      <c r="E16" t="s">
-        <v>112</v>
+      <c r="E16" s="22">
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>107</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1827,12 +3113,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78948DBB-3091-409B-A186-B130C0B79515}">
-  <dimension ref="A1:F18"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B8D669-3EB1-44CD-8271-E4D1E5AC2FFF}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="E1" sqref="E1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,93 +3127,106 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2023</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>79.8</v>
       </c>
       <c r="C3" s="6">
-        <v>12.8</v>
+        <v>49.8</v>
       </c>
       <c r="D3">
         <v>2023</v>
       </c>
-      <c r="E3" t="s">
-        <v>113</v>
+      <c r="E3" s="22">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6">
         <v>20.5</v>
       </c>
       <c r="C4" s="6">
-        <v>15.37</v>
+        <v>20.5</v>
       </c>
       <c r="D4">
         <v>2023</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
+      <c r="E4" s="22">
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(B6:B10)</f>
@@ -1935,15 +3234,18 @@
       </c>
       <c r="C5" s="7">
         <f>SUM(C6:C10)</f>
-        <v>14.75</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="D5">
         <v>2023</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>3.57</v>
@@ -1954,16 +3256,19 @@
       <c r="D6">
         <v>2023</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
+      <c r="E6" s="22">
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>5.91</v>
@@ -1974,36 +3279,42 @@
       <c r="D7">
         <v>2023</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
+      <c r="E7" s="22">
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="22">
         <v>4.17</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="22">
         <v>4.17</v>
       </c>
       <c r="D8">
         <v>2023</v>
       </c>
-      <c r="E8" t="s">
-        <v>117</v>
+      <c r="E8" s="22">
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2014,36 +3325,42 @@
       <c r="D9">
         <v>2023</v>
       </c>
-      <c r="E9" t="s">
-        <v>96</v>
+      <c r="E9" s="22">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>23.9</v>
       </c>
       <c r="C10">
-        <v>1.1000000000000001</v>
+        <v>23.9</v>
       </c>
       <c r="D10">
         <v>2023</v>
       </c>
-      <c r="E10" t="s">
-        <v>97</v>
+      <c r="E10" s="22">
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="8">
         <f>B4+B5+B3</f>
@@ -2051,1021 +3368,22 @@
       </c>
       <c r="C11" s="9">
         <f>C4+C5+C3</f>
-        <v>42.92</v>
+        <v>107.85</v>
       </c>
       <c r="D11" s="8">
         <v>2023</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="11">
-        <f>0*SUM(B2:B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <f>0*SUM(C2:C5)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="24">
-        <v>0</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="11">
-        <f>SUM(B2:B5,B12:B13)</f>
-        <v>137.85</v>
-      </c>
-      <c r="C14" s="13">
-        <f>SUM(C2:C5,C12:C13)</f>
-        <v>42.92</v>
-      </c>
-      <c r="D14" s="10">
-        <v>2023</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15">
-        <v>98.85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>2023</v>
-      </c>
-      <c r="E15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16">
-        <v>575.79999999999995</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
-      <c r="E16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB7037D-F2B6-4676-B544-E6ACCC566667}">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2023</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6">
-        <v>79.8</v>
-      </c>
-      <c r="C3" s="6">
-        <v>12.8</v>
-      </c>
-      <c r="D3">
-        <v>2023</v>
-      </c>
-      <c r="E3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6">
-        <v>20.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>15.37</v>
-      </c>
-      <c r="D4">
-        <v>2023</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(B6:B10)</f>
-        <v>37.549999999999997</v>
-      </c>
-      <c r="C5" s="7">
-        <f>SUM(C6:C10)</f>
-        <v>14.75</v>
-      </c>
-      <c r="D5">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>3.57</v>
-      </c>
-      <c r="C6">
-        <v>3.57</v>
-      </c>
-      <c r="D6">
-        <v>2023</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>5.91</v>
-      </c>
-      <c r="C7">
-        <v>5.91</v>
-      </c>
-      <c r="D7">
-        <v>2023</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="22">
-        <v>4.17</v>
-      </c>
-      <c r="C8" s="27">
-        <v>4.17</v>
-      </c>
-      <c r="D8">
-        <v>2023</v>
-      </c>
-      <c r="E8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2023</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
         <v>34</v>
-      </c>
-      <c r="B10">
-        <v>23.9</v>
-      </c>
-      <c r="C10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D10">
-        <v>2023</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8">
-        <f>B4+B5+B3</f>
-        <v>137.85</v>
-      </c>
-      <c r="C11" s="9">
-        <f>C4+C5+C3</f>
-        <v>42.92</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2023</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="11">
-        <f>0*SUM(B2:B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <f>0*SUM(C2:C5)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="24">
-        <v>0</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="11">
-        <f>SUM(B2:B5,B12:B13)</f>
-        <v>137.85</v>
-      </c>
-      <c r="C14" s="13">
-        <f>SUM(C2:C5,C12:C13)</f>
-        <v>42.92</v>
-      </c>
-      <c r="D14" s="10">
-        <v>2023</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15">
-        <v>98.85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>2023</v>
-      </c>
-      <c r="E15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16">
-        <v>575.79999999999995</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
-      <c r="E16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4AE0BC-7246-4B6D-B709-C9DFB0F4D896}">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2023</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6">
-        <v>79.8</v>
-      </c>
-      <c r="C3" s="6">
-        <v>59.8</v>
-      </c>
-      <c r="D3">
-        <v>2023</v>
-      </c>
-      <c r="E3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6">
-        <v>20.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>20.5</v>
-      </c>
-      <c r="D4">
-        <v>2023</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(B6:B10)</f>
-        <v>37.549999999999997</v>
-      </c>
-      <c r="C5" s="7">
-        <f>SUM(C6:C10)</f>
-        <v>37.549999999999997</v>
-      </c>
-      <c r="D5">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>3.57</v>
-      </c>
-      <c r="C6">
-        <v>3.57</v>
-      </c>
-      <c r="D6">
-        <v>2023</v>
-      </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>5.91</v>
-      </c>
-      <c r="C7">
-        <v>5.91</v>
-      </c>
-      <c r="D7">
-        <v>2023</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="22">
-        <v>4.17</v>
-      </c>
-      <c r="C8" s="22">
-        <v>4.17</v>
-      </c>
-      <c r="D8">
-        <v>2023</v>
-      </c>
-      <c r="E8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2023</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>23.9</v>
-      </c>
-      <c r="C10">
-        <v>23.9</v>
-      </c>
-      <c r="D10">
-        <v>2023</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8">
-        <f>B4+B5+B3</f>
-        <v>137.85</v>
-      </c>
-      <c r="C11" s="9">
-        <f>C4+C5+C3</f>
-        <v>117.85</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2023</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="11">
-        <f>0*SUM(B2:B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <f>0*SUM(C2:C5)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="24">
-        <v>0</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="11">
-        <f>SUM(B2:B5,B12:B13)</f>
-        <v>137.85</v>
-      </c>
-      <c r="C14" s="13">
-        <f>SUM(C2:C5,C12:C13)</f>
-        <v>117.85</v>
-      </c>
-      <c r="D14" s="10">
-        <v>2023</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>2023</v>
-      </c>
-      <c r="E15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16">
-        <v>402.74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B8D669-3EB1-44CD-8271-E4D1E5AC2FFF}">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2023</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6">
-        <v>79.8</v>
-      </c>
-      <c r="C3" s="6">
-        <v>49.8</v>
-      </c>
-      <c r="D3">
-        <v>2023</v>
-      </c>
-      <c r="E3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="6">
-        <v>20.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>20.5</v>
-      </c>
-      <c r="D4">
-        <v>2023</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(B6:B10)</f>
-        <v>37.549999999999997</v>
-      </c>
-      <c r="C5" s="7">
-        <f>SUM(C6:C10)</f>
-        <v>37.549999999999997</v>
-      </c>
-      <c r="D5">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>3.57</v>
-      </c>
-      <c r="C6">
-        <v>3.57</v>
-      </c>
-      <c r="D6">
-        <v>2023</v>
-      </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7">
-        <v>5.91</v>
-      </c>
-      <c r="C7">
-        <v>5.91</v>
-      </c>
-      <c r="D7">
-        <v>2023</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="22">
-        <v>4.17</v>
-      </c>
-      <c r="C8" s="22">
-        <v>4.17</v>
-      </c>
-      <c r="D8">
-        <v>2023</v>
-      </c>
-      <c r="E8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2023</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>23.9</v>
-      </c>
-      <c r="C10">
-        <v>23.9</v>
-      </c>
-      <c r="D10">
-        <v>2023</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8">
-        <f>B4+B5+B3</f>
-        <v>137.85</v>
-      </c>
-      <c r="C11" s="9">
-        <f>C4+C5+C3</f>
-        <v>107.85</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2023</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="B12" s="11">
         <f>0.19*SUM(B2:B5)</f>
@@ -3076,13 +3394,16 @@
         <v>20.491499999999998</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="24">
         <v>0</v>
@@ -3091,16 +3412,19 @@
         <v>0</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B14" s="11">
         <f>SUM(B2:B5,B12:B13)</f>
@@ -3113,46 +3437,55 @@
       <c r="D14" s="10">
         <v>2023</v>
       </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>2023</v>
       </c>
-      <c r="E15" t="s">
-        <v>100</v>
+      <c r="E15" s="22">
+        <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>10.17</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
-      <c r="E16" t="s">
-        <v>112</v>
+      <c r="E16" s="22">
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -3182,27 +3515,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="21">
         <v>45083</v>
@@ -3210,13 +3543,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="D3" s="21">
         <v>45083</v>
@@ -3224,13 +3557,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" s="21">
         <v>45083</v>
@@ -3238,13 +3571,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="21">
         <v>45083</v>
@@ -3252,13 +3585,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="21">
         <v>45083</v>
@@ -3266,13 +3599,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="21">
         <v>45083</v>
@@ -3280,13 +3613,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" s="21">
         <v>45083</v>
@@ -3294,13 +3627,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="21">
         <v>45083</v>
@@ -3308,13 +3641,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="21">
         <v>45083</v>
@@ -3322,13 +3655,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" s="21">
         <v>45083</v>
@@ -3336,13 +3669,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" s="21">
         <v>45083</v>
@@ -3350,13 +3683,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="21">
         <v>45083</v>
@@ -3364,13 +3697,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>80</v>
-      </c>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" s="21">
         <v>45083</v>
@@ -3378,13 +3711,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" s="21">
         <v>45083</v>

--- a/inputs/tariff_configuration_ALL.xlsx
+++ b/inputs/tariff_configuration_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koch_j0\AMIRIS\demand_response_analyses_workflow\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2F3C5A-6F24-41EF-AC99-13699DAEB753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBAAD7C-0798-49CE-A0CC-DC12085B7240}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{3118DBBB-A8B8-40F0-B654-F617A01C8433}"/>
   </bookViews>
@@ -433,8 +433,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -584,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -631,6 +632,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -683,9 +685,9 @@
       <sheetName val="Multiplier_100_dyn_80_LP"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="13">
           <cell r="I13">
@@ -693,30 +695,30 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1207,7 +1209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B6F998-9ABC-4707-A766-B287B89607D5}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1970,9 +1974,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78948DBB-3091-409B-A186-B130C0B79515}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2341,8 +2347,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
